--- a/src/template/file_b.xlsx
+++ b/src/template/file_b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ran/Documents/Vaccine/Booster_Conso/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ran/Documents/LTGPython/LTGC-BoosterConso/src/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D5C973-53F2-5A4B-94DA-8242745BDBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49330D25-AE70-1845-9075-CE78456A8858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32200" yWindow="2560" windowWidth="24500" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="24500" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -126,16 +126,19 @@
     <t>Please specify comorbidity/ies</t>
   </si>
   <si>
+    <t>mH105uLaW0yo-Ya779ujck5L-XciVjhEq-ZLkUvBxItUQkNKRFNMOVBKWjE0QjBaVjM2NUJZNEFRNCQlQCN0PWcu</t>
+  </si>
+  <si>
+    <t>Form1</t>
+  </si>
+  <si>
+    <t>{fabccef2-c841-4e63-a943-ba2e05243845}</t>
+  </si>
+  <si>
+    <t>Select preferred vaccination site for your booster shot.</t>
+  </si>
+  <si>
     <t>Parent Company</t>
-  </si>
-  <si>
-    <t>mH105uLaW0yo-Ya779ujck5L-XciVjhEq-ZLkUvBxItUQkNKRFNMOVBKWjE0QjBaVjM2NUJZNEFRNCQlQCN0PWcu</t>
-  </si>
-  <si>
-    <t>Form1</t>
-  </si>
-  <si>
-    <t>{fabccef2-c841-4e63-a943-ba2e05243845}</t>
   </si>
 </sst>
 </file>
@@ -199,17 +202,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -308,38 +315,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AC2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:AC2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="By filling out this form, I agree to participate in the booster vaccination program sponsored by LT Group, Inc., its subsidiaries and affiliates" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Consent for Personal Data Collection" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AD2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:AD2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="By filling out this form, I agree to participate in the booster vaccination program sponsored by LT Group, Inc., its subsidiaries and affiliates" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Consent for Personal Data Collection" dataDxfId="22"/>
     <tableColumn id="25" xr3:uid="{ABB5BF08-93A1-41F0-8166-1BB4ABC8D75D}" name="What is the name of your employer?"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Employee Number" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last Name" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="First Name" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Middle Name" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Suffix" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Birthdate" dataDxfId="15"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Select your appropriate Priority Group" dataDxfId="14"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Are you a member of an indigenous group?" dataDxfId="13"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Are you a PWD (Person with Disability)?" dataDxfId="12"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Occupation" dataDxfId="11"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Mobile Number" dataDxfId="10"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Email Address" dataDxfId="9"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Region" dataDxfId="8"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Province" dataDxfId="7"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="City" dataDxfId="6"/>
-    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0000-000095000000}" name="Barangay" dataDxfId="5"/>
-    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="Sex" dataDxfId="4"/>
-    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0000-000097000000}" name="Allergy to vaccines or components of vaccines?" dataDxfId="3"/>
-    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0000-000098000000}" name="With Comorbidity/ies?" dataDxfId="2"/>
-    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0000-000099000000}" name="Please specify comorbidity/ies" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{848D89A1-F300-4279-95A0-83894BB14B6E}" name="Parent Company" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Employee Number" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last Name" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="First Name" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Middle Name" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Suffix" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Birthdate" dataDxfId="16"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Select your appropriate Priority Group" dataDxfId="15"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Are you a member of an indigenous group?" dataDxfId="14"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Are you a PWD (Person with Disability)?" dataDxfId="13"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Occupation" dataDxfId="12"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Mobile Number" dataDxfId="11"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Email Address" dataDxfId="10"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Region" dataDxfId="9"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Province" dataDxfId="8"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="City" dataDxfId="7"/>
+    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0000-000095000000}" name="Barangay" dataDxfId="6"/>
+    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0000-000096000000}" name="Sex" dataDxfId="5"/>
+    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0000-000097000000}" name="Allergy to vaccines or components of vaccines?" dataDxfId="4"/>
+    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0000-000098000000}" name="With Comorbidity/ies?" dataDxfId="3"/>
+    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0000-000099000000}" name="Please specify comorbidity/ies" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{848D89A1-F300-4279-95A0-83894BB14B6E}" name="Select preferred vaccination site for your booster shot." dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{56D62CC9-D918-304D-B236-B81288C4381A}" name="Parent Company" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -642,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,7 +667,7 @@
     <col min="29" max="29" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,15 +753,19 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" s="3"/>
       <c r="N2" s="2"/>
       <c r="S2" s="3"/>
+      <c r="AD2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,17 +788,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +808,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C72AE3DDA6B584A9105A7C37C52ACD5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5f750f7c675308198f81653957a763d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e83e0154-4d18-46cc-b03a-5fb1745a31ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ea26e5882d4928032320f9dc02c5e9" ns2:_="">
     <xsd:import namespace="e83e0154-4d18-46cc-b03a-5fb1745a31ce"/>
@@ -927,22 +954,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0484765-430A-4EED-97F1-8C09D902A021}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2D55980-D6AC-445B-B247-BDA286E02498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BB70774-A484-458F-937E-589EFB1AAF04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -958,21 +987,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0484765-430A-4EED-97F1-8C09D902A021}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2D55980-D6AC-445B-B247-BDA286E02498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>